--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -56,7 +56,8 @@
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS support in the U.S.
+    <t xml:space="preserve">
+Belief about GCS support in the U.S.
 (except for the U.S.: support in the EU)</t>
   </si>
 </sst>
@@ -435,40 +436,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>42.3073250202166</v>
+        <v>41.7372453377052</v>
       </c>
       <c r="C2" t="n">
-        <v>42.32731074868</v>
+        <v>42.2297683433051</v>
       </c>
       <c r="D2" t="n">
-        <v>44.470418822047</v>
+        <v>44.4877182903437</v>
       </c>
       <c r="E2" t="n">
-        <v>38.8280061323227</v>
+        <v>38.552586222486</v>
       </c>
       <c r="F2" t="n">
-        <v>43.2099455377032</v>
+        <v>43.3335742727043</v>
       </c>
       <c r="G2" t="n">
-        <v>41.3978517628264</v>
+        <v>39.2814968440086</v>
       </c>
       <c r="H2" t="n">
-        <v>42.7931379132603</v>
+        <v>43.8010508208596</v>
       </c>
       <c r="I2" t="n">
-        <v>42.6722800498643</v>
+        <v>43.8290682999177</v>
       </c>
       <c r="J2" t="n">
-        <v>46.7580875889793</v>
+        <v>45.7593973431738</v>
       </c>
       <c r="K2" t="n">
-        <v>37.201299617047</v>
+        <v>36.9068079681403</v>
       </c>
       <c r="L2" t="n">
-        <v>54.540958857809</v>
+        <v>54.6783899296328</v>
       </c>
       <c r="M2" t="n">
-        <v>43.2695212497248</v>
+        <v>41.687361942331</v>
       </c>
     </row>
     <row r="3">
@@ -476,40 +477,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>34.5391411723734</v>
+        <v>34.7728459875887</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6725837594356</v>
+        <v>28.1800572752332</v>
       </c>
       <c r="D3" t="n">
-        <v>27.2294748169102</v>
+        <v>27.3641066555449</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5718938989159</v>
+        <v>25.6678080584812</v>
       </c>
       <c r="F3" t="n">
-        <v>29.6762973985407</v>
+        <v>29.6625949546182</v>
       </c>
       <c r="G3" t="n">
-        <v>32.5372156021431</v>
+        <v>31.851890054073</v>
       </c>
       <c r="H3" t="n">
-        <v>29.0525401507393</v>
+        <v>29.1910171733495</v>
       </c>
       <c r="I3" t="n">
-        <v>27.5853807942848</v>
+        <v>28.6093000748544</v>
       </c>
       <c r="J3" t="n">
-        <v>25.6949653187643</v>
+        <v>25.624783349908</v>
       </c>
       <c r="K3" t="n">
-        <v>30.647815935588</v>
+        <v>30.4387261840999</v>
       </c>
       <c r="L3" t="n">
-        <v>45.8491347721866</v>
+        <v>45.8572414678735</v>
       </c>
       <c r="M3" t="n">
-        <v>43.9999727704209</v>
+        <v>42.9925088066507</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -430,13 +433,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>41.7372453377052</v>
+        <v>40.6177237377237</v>
       </c>
       <c r="C2" t="n">
         <v>42.2297683433051</v>
@@ -466,15 +472,18 @@
         <v>36.9068079681403</v>
       </c>
       <c r="L2" t="n">
+        <v>37.200929502023</v>
+      </c>
+      <c r="M2" t="n">
         <v>54.6783899296328</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>41.687361942331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>34.7728459875887</v>
@@ -506,10 +515,11 @@
       <c r="K3" t="n">
         <v>30.4387261840999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3"/>
+      <c r="M3" t="n">
         <v>45.8572414678735</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>42.9925088066507</v>
       </c>
     </row>

--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -442,7 +442,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>40.6177237377237</v>
+        <v>40.5493307668479</v>
       </c>
       <c r="C2" t="n">
         <v>42.2297683433051</v>
@@ -469,16 +469,16 @@
         <v>45.7593973431738</v>
       </c>
       <c r="K2" t="n">
-        <v>36.9068079681403</v>
+        <v>36.9055302021312</v>
       </c>
       <c r="L2" t="n">
-        <v>37.200929502023</v>
+        <v>36.9057907051389</v>
       </c>
       <c r="M2" t="n">
         <v>54.6783899296328</v>
       </c>
       <c r="N2" t="n">
-        <v>41.687361942331</v>
+        <v>41.6894250824717</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>34.7728459875887</v>
+        <v>34.7872415482579</v>
       </c>
       <c r="C3" t="n">
         <v>28.1800572752332</v>
@@ -513,14 +513,14 @@
         <v>25.624783349908</v>
       </c>
       <c r="K3" t="n">
-        <v>30.4387261840999</v>
+        <v>30.4357942185907</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
         <v>45.8572414678735</v>
       </c>
       <c r="N3" t="n">
-        <v>42.9925088066507</v>
+        <v>43.0029533260978</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -442,7 +442,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>40.5493307668479</v>
+        <v>40.563158268296</v>
       </c>
       <c r="C2" t="n">
         <v>42.2297683433051</v>
@@ -472,7 +472,7 @@
         <v>36.9055302021312</v>
       </c>
       <c r="L2" t="n">
-        <v>36.9057907051389</v>
+        <v>36.9618773883661</v>
       </c>
       <c r="M2" t="n">
         <v>54.6783899296328</v>
